--- a/xslx/sortie_year_model.xlsx
+++ b/xslx/sortie_year_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_ING\Desktop\pythonProject\xslx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5EC852-FE8B-4711-A344-CD33B934A8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC74CCF7-7626-45FA-9D0C-0B1E23BBA6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,13 +37,13 @@
     <t>البيانات</t>
   </si>
   <si>
-    <t>الكمية الكمية المستوردة</t>
-  </si>
-  <si>
     <t xml:space="preserve">المواد الغذائية الممونة </t>
   </si>
   <si>
     <t>سنة:</t>
+  </si>
+  <si>
+    <t>الكمية الممونة</t>
   </si>
 </sst>
 </file>
@@ -249,10 +249,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,34 +273,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,15 +650,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -686,11 +686,11 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -732,7 +732,7 @@
     </row>
     <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -752,10 +752,10 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="14" t="s">
-        <v>7</v>
+      <c r="E7" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -795,17 +795,17 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>5</v>
+      <c r="A10" s="20" t="s">
+        <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="5"/>
@@ -816,13 +816,13 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -831,13 +831,13 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -846,13 +846,13 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -861,13 +861,13 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -876,13 +876,13 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -891,13 +891,13 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -906,13 +906,13 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -921,13 +921,13 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -936,13 +936,13 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -951,13 +951,13 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -966,13 +966,13 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -981,13 +981,13 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -996,13 +996,13 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1011,13 +1011,13 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1026,13 +1026,13 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1041,13 +1041,13 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1056,13 +1056,13 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1071,13 +1071,13 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1086,13 +1086,13 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1101,13 +1101,13 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1116,13 +1116,13 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1131,13 +1131,13 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1146,13 +1146,13 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1161,598 +1161,598 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="24"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="24"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="24"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="24"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="24"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="24"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="24"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="24"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="24"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="24"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="24"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="24"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="24"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="24"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="24"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="24"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="24"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="24"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="24"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="24"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="24"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="24"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="24"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="24"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="24"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="24"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="24"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="185">
@@ -1910,8 +1910,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="E3:G3"/>
@@ -1941,6 +1939,8 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
